--- a/biology/Zoologie/Friedrich_von_Huene/Friedrich_von_Huene.xlsx
+++ b/biology/Zoologie/Friedrich_von_Huene/Friedrich_von_Huene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le baron Friedrich Richard von Hoynigen, dit von Huene (né le 22 mars 1875 à Tübingen; † 4 avril 1969 dans cette même ville) est un paléontologue allemand spécialiste des vertébrés[1]. Il fut, au début du XXe siècle, le plus grand expert européen des amphibiens et reptiles fossiles ; il a décrit et nommé plus de dinosaures que n'importe quel autre paléontologue du continent, notamment des Prosauropoda et des Sauropodomorpha.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le baron Friedrich Richard von Hoynigen, dit von Huene (né le 22 mars 1875 à Tübingen; † 4 avril 1969 dans cette même ville) est un paléontologue allemand spécialiste des vertébrés. Il fut, au début du XXe siècle, le plus grand expert européen des amphibiens et reptiles fossiles ; il a décrit et nommé plus de dinosaures que n'importe quel autre paléontologue du continent, notamment des Prosauropoda et des Sauropodomorpha.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoyningen-Huene soutint sa thèse de doctorat à l'Université de Tübingen en 1898 et obtint la chaire de Paléontologie de cet établissement. Dans la continuité de son travail de thèse, il se consacra d'abord à l'étude des brachiopodes du silurien, mais en 1900 élargit son champ de recherche aux amphibiens et reptiles fossiles. Au cours d'une carrière qui aura duré plus de 60 années, il s'est imposé comme un spécialiste des dinosaures bien au-delà de l'Europe.
 Sa carrière est marquée par la découverte des restes fossilisés d'un troupeau de 35 platéosaures ensevelis par une coulée de boue. Il donne la description de plusieurs espèces de dinosaures tels Saltopus (1910), Proceratosaurus (1926), Antarctosaurus (1929) et distingue plusieurs taxons importants comme l'infra-ordre des Prosauropoda (1920) et le sous-ordre des Sauropodomorpha (1932). Friedrich von Huene a entrepris plusieurs chantiers et expéditions hors du continent européen : l'Amérique du Nord, où il s'initia aux méthodes de fouille en 1911 ; l'Argentine et la Patagonie (1923-24), et par la même occasion l'Afrique du Sud. Lors d'une nouvelle expédition en Amérique du Sud en 1928-29 (Argentine, Brésil, Uruguay), il découvre de nouvelles espèces, notamment les grands reptiles mammiféromorphes du genre Stahleckeria (de). Il fait connaître ces découvertes dans l'ouvrage Die fossilen Reptilien des südamerikanischen Gondwanalandes (1935–1942). Il effectue son dernier voyage en 1955 en Union Soviétique à l'invitation de collègues russes.
@@ -543,9 +557,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Friedrich von Huene devint en 1896 membre de la Société géologique suisse. Il fut, au mois d'août 1912, l'un des fondateurs de la Paläontologische Gesellschaft, en fut le 6 septembre 1912 le premier directeur éditorial avec Gustav von Arthaber (de)[2], et membre honoraire (1955). Il fut élu membre de la Leopoldina (1925), membre correspondant de l'Académie des sciences d'URSS[3] (1929), de la Société de paléontologie des vertébrés (1952), membre honoraire de la Verein für vaterländische Naturkunde in Württemberg[4] (1955) et reçut en 1948 le prix Leopold von Buch.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Friedrich von Huene devint en 1896 membre de la Société géologique suisse. Il fut, au mois d'août 1912, l'un des fondateurs de la Paläontologische Gesellschaft, en fut le 6 septembre 1912 le premier directeur éditorial avec Gustav von Arthaber (de), et membre honoraire (1955). Il fut élu membre de la Leopoldina (1925), membre correspondant de l'Académie des sciences d'URSS (1929), de la Société de paléontologie des vertébrés (1952), membre honoraire de la Verein für vaterländische Naturkunde in Württemberg (1955) et reçut en 1948 le prix Leopold von Buch.
 Plusieurs espèces fossiles ont été baptisées en hommage à ses travaux ; ainsi, Charles Walcott, pionnier de l'étude des fossiles du Cambrien, a nommé hueneæ une espèce de brachiopodes. Liassaurus huenei est un dinosaure théropode carnivore primitif décrit en 1995 ; toutefois, en l'absence de description scientifique, cette appellation demeure pour l'instant un nomen nudum qui n'est donc pas officiellement reconnu.
 </t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) « Die fossile Reptil-Ordnung Saurischia, ihre Entwicklung und Geschichte », Monographien zür Geologie und Palaeontologie, 1re série, vol. 4, nos 1-2,‎ 1932, p. 1-361.
 Die fossile Reptil-Ordnung Saurischia, ihre Entwicklung und Geschichte. In: Monogr. Geol. Palaeontol. (1re série) 4; pp. 1–361 (1932)
@@ -623,7 +641,9 @@
           <t>Exemples de dinosaures et reptiles fossiles décrits</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Antarctosaurus : 1927
 Yaleosaurus : 1932 (Synonyme de Anchisaurus)
